--- a/scripts/data_analysis/out/analysis_result_x265_vs._svtav1.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x265_vs._svtav1.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="result" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="anchor_data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="refer_data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="refer1_data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -143,12 +143,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$2:$D$5</f>
+              <f>'refer1_data'!$D$2:$D$5</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$2:$E$5</f>
+              <f>'refer1_data'!$E$2:$E$5</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -158,6 +158,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="31"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -173,33 +200,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="28"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -291,12 +291,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$38:$D$41</f>
+              <f>'refer1_data'!$D$38:$D$41</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$38:$E$41</f>
+              <f>'refer1_data'!$E$38:$E$41</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -306,6 +306,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="31"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -321,33 +348,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="28"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -439,12 +439,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$42:$D$45</f>
+              <f>'refer1_data'!$D$42:$D$45</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$42:$E$45</f>
+              <f>'refer1_data'!$E$42:$E$45</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -454,6 +454,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="27"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -469,33 +496,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="24"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -587,12 +587,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$46:$D$49</f>
+              <f>'refer1_data'!$D$46:$D$49</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$46:$E$49</f>
+              <f>'refer1_data'!$E$46:$E$49</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -602,6 +602,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="28"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -617,33 +644,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="25"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -735,12 +735,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$50:$D$53</f>
+              <f>'refer1_data'!$D$50:$D$53</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$50:$E$53</f>
+              <f>'refer1_data'!$E$50:$E$53</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -750,6 +750,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="25"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -765,33 +792,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="22"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -883,12 +883,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$54:$D$57</f>
+              <f>'refer1_data'!$D$54:$D$57</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$54:$E$57</f>
+              <f>'refer1_data'!$E$54:$E$57</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -898,6 +898,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="22"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -913,33 +940,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="19"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1031,12 +1031,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$58:$D$61</f>
+              <f>'refer1_data'!$D$58:$D$61</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$58:$E$61</f>
+              <f>'refer1_data'!$E$58:$E$61</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1046,6 +1046,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="26"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1061,33 +1088,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="23"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1179,12 +1179,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$62:$D$65</f>
+              <f>'refer1_data'!$D$62:$D$65</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$62:$E$65</f>
+              <f>'refer1_data'!$E$62:$E$65</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1194,6 +1194,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="26"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1209,33 +1236,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="23"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1327,12 +1327,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$66:$D$69</f>
+              <f>'refer1_data'!$D$66:$D$69</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$66:$E$69</f>
+              <f>'refer1_data'!$E$66:$E$69</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1342,6 +1342,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="24"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1357,33 +1384,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="21"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1475,12 +1475,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$70:$D$73</f>
+              <f>'refer1_data'!$D$70:$D$73</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$70:$E$73</f>
+              <f>'refer1_data'!$E$70:$E$73</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1490,6 +1490,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="21"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1505,33 +1532,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="18"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1623,12 +1623,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$74:$D$77</f>
+              <f>'refer1_data'!$D$74:$D$77</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$74:$E$77</f>
+              <f>'refer1_data'!$E$74:$E$77</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1638,6 +1638,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="24"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1653,33 +1680,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="21"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1771,12 +1771,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$6:$D$9</f>
+              <f>'refer1_data'!$D$6:$D$9</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$6:$E$9</f>
+              <f>'refer1_data'!$E$6:$E$9</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1786,6 +1786,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="32"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1801,33 +1828,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="29"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1919,12 +1919,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$78:$D$81</f>
+              <f>'refer1_data'!$D$78:$D$81</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$78:$E$81</f>
+              <f>'refer1_data'!$E$78:$E$81</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1934,6 +1934,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="27"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1949,33 +1976,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="24"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2067,12 +2067,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$82:$D$85</f>
+              <f>'refer1_data'!$D$82:$D$85</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$82:$E$85</f>
+              <f>'refer1_data'!$E$82:$E$85</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2082,6 +2082,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="30"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2097,33 +2124,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="27"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2215,12 +2215,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$86:$D$89</f>
+              <f>'refer1_data'!$D$86:$D$89</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$86:$E$89</f>
+              <f>'refer1_data'!$E$86:$E$89</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2230,6 +2230,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="29"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2245,33 +2272,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="26"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2363,12 +2363,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$90:$D$93</f>
+              <f>'refer1_data'!$D$90:$D$93</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$90:$E$93</f>
+              <f>'refer1_data'!$E$90:$E$93</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2378,6 +2378,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="27"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2393,33 +2420,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="24"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2511,12 +2511,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$94:$D$97</f>
+              <f>'refer1_data'!$D$94:$D$97</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$94:$E$97</f>
+              <f>'refer1_data'!$E$94:$E$97</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2526,6 +2526,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="25"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2541,33 +2568,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="22"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2659,12 +2659,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$98:$D$101</f>
+              <f>'refer1_data'!$D$98:$D$101</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$98:$E$101</f>
+              <f>'refer1_data'!$E$98:$E$101</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2674,6 +2674,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="25"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2689,33 +2716,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="22"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2807,12 +2807,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$102:$D$105</f>
+              <f>'refer1_data'!$D$102:$D$105</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$102:$E$105</f>
+              <f>'refer1_data'!$E$102:$E$105</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2822,6 +2822,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="32"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2837,33 +2864,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="29"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2955,12 +2955,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$10:$D$13</f>
+              <f>'refer1_data'!$D$10:$D$13</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$10:$E$13</f>
+              <f>'refer1_data'!$E$10:$E$13</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2970,6 +2970,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="34"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2985,33 +3012,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="31"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3103,12 +3103,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$14:$D$17</f>
+              <f>'refer1_data'!$D$14:$D$17</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$14:$E$17</f>
+              <f>'refer1_data'!$E$14:$E$17</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3118,6 +3118,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="32"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3133,33 +3160,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="29"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3251,12 +3251,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$18:$D$21</f>
+              <f>'refer1_data'!$D$18:$D$21</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$18:$E$21</f>
+              <f>'refer1_data'!$E$18:$E$21</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3266,6 +3266,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="24"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3281,33 +3308,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="21"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3399,12 +3399,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$22:$D$25</f>
+              <f>'refer1_data'!$D$22:$D$25</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$22:$E$25</f>
+              <f>'refer1_data'!$E$22:$E$25</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3414,6 +3414,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="34"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3429,33 +3456,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="31"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3547,12 +3547,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$26:$D$29</f>
+              <f>'refer1_data'!$D$26:$D$29</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$26:$E$29</f>
+              <f>'refer1_data'!$E$26:$E$29</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3562,6 +3562,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="30"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3577,33 +3604,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="27"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3695,12 +3695,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$30:$D$33</f>
+              <f>'refer1_data'!$D$30:$D$33</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$30:$E$33</f>
+              <f>'refer1_data'!$E$30:$E$33</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3710,6 +3710,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="26"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3725,33 +3752,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="23"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3843,12 +3843,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$34:$D$37</f>
+              <f>'refer1_data'!$D$34:$D$37</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$34:$E$37</f>
+              <f>'refer1_data'!$E$34:$E$37</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3858,6 +3858,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="28"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3873,33 +3900,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="25"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>

--- a/scripts/data_analysis/out/analysis_result_x265_vs._svtav1.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x265_vs._svtav1.xlsx
@@ -5564,7 +5564,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>﻿Average</t>
+          <t>﻿Average:</t>
         </is>
       </c>
       <c r="C28" t="n">

--- a/scripts/data_analysis/out/analysis_result_x265_vs._svtav1.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x265_vs._svtav1.xlsx
@@ -160,6 +160,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="31"/>
         </scaling>
         <axPos val="l"/>
@@ -174,32 +200,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -308,6 +308,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="31"/>
         </scaling>
         <axPos val="l"/>
@@ -322,32 +348,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -456,6 +456,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -470,32 +496,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -604,6 +604,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="28"/>
         </scaling>
         <axPos val="l"/>
@@ -618,32 +644,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -752,6 +752,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="25"/>
         </scaling>
         <axPos val="l"/>
@@ -766,32 +792,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -900,6 +900,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="22"/>
         </scaling>
         <axPos val="l"/>
@@ -914,32 +940,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1048,6 +1048,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -1062,32 +1088,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1196,6 +1196,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -1210,32 +1236,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1344,6 +1344,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -1358,32 +1384,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1492,6 +1492,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="21"/>
         </scaling>
         <axPos val="l"/>
@@ -1506,32 +1532,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1640,6 +1640,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -1654,32 +1680,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1788,6 +1788,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="32"/>
         </scaling>
         <axPos val="l"/>
@@ -1802,32 +1828,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1936,6 +1936,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -1950,32 +1976,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2084,6 +2084,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="30"/>
         </scaling>
         <axPos val="l"/>
@@ -2098,32 +2124,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2232,6 +2232,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="29"/>
         </scaling>
         <axPos val="l"/>
@@ -2246,32 +2272,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2380,6 +2380,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -2394,32 +2420,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2528,6 +2528,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="25"/>
         </scaling>
         <axPos val="l"/>
@@ -2542,32 +2568,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2676,6 +2676,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="25"/>
         </scaling>
         <axPos val="l"/>
@@ -2690,32 +2716,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2824,6 +2824,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="32"/>
         </scaling>
         <axPos val="l"/>
@@ -2838,32 +2864,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2972,6 +2972,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="34"/>
         </scaling>
         <axPos val="l"/>
@@ -2986,32 +3012,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3120,6 +3120,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="32"/>
         </scaling>
         <axPos val="l"/>
@@ -3134,32 +3160,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3268,6 +3268,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -3282,32 +3308,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3416,6 +3416,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="34"/>
         </scaling>
         <axPos val="l"/>
@@ -3430,32 +3456,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3564,6 +3564,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="30"/>
         </scaling>
         <axPos val="l"/>
@@ -3578,32 +3604,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3712,6 +3712,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -3726,32 +3752,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3860,6 +3860,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="28"/>
         </scaling>
         <axPos val="l"/>
@@ -3874,32 +3900,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
